--- a/LIST_SEAPORTS_AIRPORTS.xlsx
+++ b/LIST_SEAPORTS_AIRPORTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
